--- a/Proyectos/2016/1/P1439 - RNCFAC, Sabina Santibañez_AG/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2016/1/P1439 - RNCFAC, Sabina Santibañez_AG/Calidad/No_conformidades.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>REPORTE DE NO CONFORMIDADES P1439 - RNCFAC, Sabina Santibañez_AG</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Alma Yesenia</t>
   </si>
   <si>
-    <t>En proceso</t>
+    <t>Cerrada</t>
   </si>
   <si>
     <t>No existe plan de proyecto</t>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>Cerrada</t>
   </si>
   <si>
     <t>Generar encuesta de satisfaccion</t>
@@ -316,7 +313,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -388,7 +385,9 @@
       <c r="D4" s="5" t="n">
         <v>42398</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="n">
+        <v>42401</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
@@ -407,7 +406,9 @@
       <c r="D5" s="5" t="n">
         <v>42398</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="n">
+        <v>42401</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
@@ -430,10 +431,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -441,7 +442,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -449,7 +450,9 @@
       <c r="D7" s="5" t="n">
         <v>42401</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="n">
+        <v>42401</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
@@ -460,7 +463,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -468,7 +471,9 @@
       <c r="D8" s="5" t="n">
         <v>42398</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="n">
+        <v>42401</v>
+      </c>
       <c r="F8" s="6" t="s">
         <v>10</v>
       </c>
